--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\mail_script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2D88D3-4699-4D06-8C61-F8B136CC1949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB5424-45C2-49F3-A579-D956178BA678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="4665" windowWidth="28800" windowHeight="15345" xr2:uid="{E1C16505-3EBF-44D8-B963-036434E9C9BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E1C16505-3EBF-44D8-B963-036434E9C9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Email</t>
   </si>
@@ -46,13 +46,157 @@
     <t>mpenkava1337@gmail.com</t>
   </si>
   <si>
-    <t>kokot.pdf</t>
-  </si>
-  <si>
-    <t>olgamalkova@centrum.cz</t>
-  </si>
-  <si>
     <t>123.pdf</t>
+  </si>
+  <si>
+    <t>34.pdf</t>
+  </si>
+  <si>
+    <t>47.pdf</t>
+  </si>
+  <si>
+    <t>49.pdf</t>
+  </si>
+  <si>
+    <t>50.pdf</t>
+  </si>
+  <si>
+    <t>59.pdf</t>
+  </si>
+  <si>
+    <t>62.pdf</t>
+  </si>
+  <si>
+    <t>64.pdf</t>
+  </si>
+  <si>
+    <t>66.pdf</t>
+  </si>
+  <si>
+    <t>67.pdf</t>
+  </si>
+  <si>
+    <t>68.pdf</t>
+  </si>
+  <si>
+    <t>71.pdf</t>
+  </si>
+  <si>
+    <t>73.pdf</t>
+  </si>
+  <si>
+    <t>74.pdf</t>
+  </si>
+  <si>
+    <t>75.pdf</t>
+  </si>
+  <si>
+    <t>76.pdf</t>
+  </si>
+  <si>
+    <t>78.pdf</t>
+  </si>
+  <si>
+    <t>79.pdf</t>
+  </si>
+  <si>
+    <t>80.pdf</t>
+  </si>
+  <si>
+    <t>81.pdf</t>
+  </si>
+  <si>
+    <t>82.pdf</t>
+  </si>
+  <si>
+    <t>83.pdf</t>
+  </si>
+  <si>
+    <t>84.pdf</t>
+  </si>
+  <si>
+    <t>85.pdf</t>
+  </si>
+  <si>
+    <t>86.pdf</t>
+  </si>
+  <si>
+    <t>87.pdf</t>
+  </si>
+  <si>
+    <t>89.pdf</t>
+  </si>
+  <si>
+    <t>91.pdf</t>
+  </si>
+  <si>
+    <t>92.pdf</t>
+  </si>
+  <si>
+    <t>93.pdf</t>
+  </si>
+  <si>
+    <t>95.pdf</t>
+  </si>
+  <si>
+    <t>96.pdf</t>
+  </si>
+  <si>
+    <t>97.pdf</t>
+  </si>
+  <si>
+    <t>98.pdf</t>
+  </si>
+  <si>
+    <t>100.pdf</t>
+  </si>
+  <si>
+    <t>101.pdf</t>
+  </si>
+  <si>
+    <t>104.pdf</t>
+  </si>
+  <si>
+    <t>106.pdf</t>
+  </si>
+  <si>
+    <t>107.pdf</t>
+  </si>
+  <si>
+    <t>108.pdf</t>
+  </si>
+  <si>
+    <t>109.pdf</t>
+  </si>
+  <si>
+    <t>110.pdf</t>
+  </si>
+  <si>
+    <t>111.pdf</t>
+  </si>
+  <si>
+    <t>113.pdf</t>
+  </si>
+  <si>
+    <t>114.pdf</t>
+  </si>
+  <si>
+    <t>115.pdf</t>
+  </si>
+  <si>
+    <t>116.pdf</t>
+  </si>
+  <si>
+    <t>117.pdf</t>
+  </si>
+  <si>
+    <t>118.pdf</t>
+  </si>
+  <si>
+    <t>127.pdf</t>
+  </si>
+  <si>
+    <t>marty585@seznam.cz</t>
   </si>
 </sst>
 </file>
@@ -417,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB77A38-24CE-4A1A-AF74-397DDF430983}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,10 +583,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -450,15 +594,401 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{99048614-04EA-467A-8949-2E8097CAAB44}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{AF706877-7F6A-4F2E-ADE6-9D7AC8DD91C0}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{AF706877-7F6A-4F2E-ADE6-9D7AC8DD91C0}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{057C0D02-6228-47FA-93CC-9280987608A9}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{A4E94D03-4C4B-4649-BE1F-AE6A9A214487}"/>
+    <hyperlink ref="A5:A51" r:id="rId4" display="mpenkava1337@gmail.com" xr:uid="{D7E1190F-2311-47AA-AC4C-F7DBAC290C89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>